--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Has2</t>
+  </si>
+  <si>
+    <t>Cd44</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Has2</t>
-  </si>
-  <si>
-    <t>Cd44</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.013731</v>
+        <v>17.78255766666667</v>
       </c>
       <c r="H2">
-        <v>0.041193</v>
+        <v>53.347673</v>
       </c>
       <c r="I2">
-        <v>0.0006740458981190744</v>
+        <v>0.9887364018488972</v>
       </c>
       <c r="J2">
-        <v>0.0006740458981190743</v>
+        <v>0.9887364018488973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>3.589011567393</v>
+        <v>133.149070001202</v>
       </c>
       <c r="R2">
-        <v>32.301104106537</v>
+        <v>1198.341630010818</v>
       </c>
       <c r="S2">
-        <v>0.0004697208270363589</v>
+        <v>0.1368801908252745</v>
       </c>
       <c r="T2">
-        <v>0.0004697208270363589</v>
+        <v>0.1368801908252746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.013731</v>
+        <v>17.78255766666667</v>
       </c>
       <c r="H3">
-        <v>0.041193</v>
+        <v>53.347673</v>
       </c>
       <c r="I3">
-        <v>0.0006740458981190744</v>
+        <v>0.9887364018488972</v>
       </c>
       <c r="J3">
-        <v>0.0006740458981190743</v>
+        <v>0.9887364018488973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>0.439384145868</v>
+        <v>569.0316737103479</v>
       </c>
       <c r="R3">
-        <v>3.954457312812</v>
+        <v>5121.285063393132</v>
       </c>
       <c r="S3">
-        <v>5.750549434247098E-05</v>
+        <v>0.5849771544209408</v>
       </c>
       <c r="T3">
-        <v>5.750549434247098E-05</v>
+        <v>0.5849771544209409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.013731</v>
+        <v>17.78255766666667</v>
       </c>
       <c r="H4">
-        <v>0.041193</v>
+        <v>53.347673</v>
       </c>
       <c r="I4">
-        <v>0.0006740458981190744</v>
+        <v>0.9887364018488972</v>
       </c>
       <c r="J4">
-        <v>0.0006740458981190743</v>
+        <v>0.9887364018488973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>1.121809229889</v>
+        <v>259.6043881528827</v>
       </c>
       <c r="R4">
-        <v>10.096283069001</v>
+        <v>2336.439493375945</v>
       </c>
       <c r="S4">
-        <v>0.0001468195767402445</v>
+        <v>0.2668790566026819</v>
       </c>
       <c r="T4">
-        <v>0.0001468195767402445</v>
+        <v>0.2668790566026819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>17.78255766666667</v>
+        <v>0.2025773333333333</v>
       </c>
       <c r="H5">
-        <v>53.347673</v>
+        <v>0.6077319999999999</v>
       </c>
       <c r="I5">
-        <v>0.8729342402798459</v>
+        <v>0.01126359815110275</v>
       </c>
       <c r="J5">
-        <v>0.8729342402798459</v>
+        <v>0.01126359815110275</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N5">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O5">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P5">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q5">
-        <v>4648.008532772539</v>
+        <v>1.516822497768</v>
       </c>
       <c r="R5">
-        <v>41832.07679495286</v>
+        <v>13.651402479912</v>
       </c>
       <c r="S5">
-        <v>0.6083196922298747</v>
+        <v>0.00155932709812152</v>
       </c>
       <c r="T5">
-        <v>0.6083196922298748</v>
+        <v>0.00155932709812152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>17.78255766666667</v>
+        <v>0.2025773333333333</v>
       </c>
       <c r="H6">
-        <v>53.347673</v>
+        <v>0.6077319999999999</v>
       </c>
       <c r="I6">
-        <v>0.8729342402798459</v>
+        <v>0.01126359815110275</v>
       </c>
       <c r="J6">
-        <v>0.8729342402798459</v>
+        <v>0.01126359815110275</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P6">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q6">
-        <v>569.0316737103479</v>
+        <v>6.482358792431999</v>
       </c>
       <c r="R6">
-        <v>5121.285063393132</v>
+        <v>58.34122913188799</v>
       </c>
       <c r="S6">
-        <v>0.07447343742590953</v>
+        <v>0.006664008306614371</v>
       </c>
       <c r="T6">
-        <v>0.07447343742590955</v>
+        <v>0.006664008306614371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>17.78255766666667</v>
+        <v>0.2025773333333333</v>
       </c>
       <c r="H7">
-        <v>53.347673</v>
+        <v>0.6077319999999999</v>
       </c>
       <c r="I7">
-        <v>0.8729342402798459</v>
+        <v>0.01126359815110275</v>
       </c>
       <c r="J7">
-        <v>0.8729342402798459</v>
+        <v>0.01126359815110275</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N7">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O7">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P7">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q7">
-        <v>1452.817516677596</v>
+        <v>2.957390363042222</v>
       </c>
       <c r="R7">
-        <v>13075.35765009836</v>
+        <v>26.61651326738</v>
       </c>
       <c r="S7">
-        <v>0.1901411106240616</v>
+        <v>0.003040262746366857</v>
       </c>
       <c r="T7">
-        <v>0.1901411106240616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>2.574727666666667</v>
-      </c>
-      <c r="H8">
-        <v>7.724183</v>
-      </c>
-      <c r="I8">
-        <v>0.126391713822035</v>
-      </c>
-      <c r="J8">
-        <v>0.126391713822035</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>261.380203</v>
-      </c>
-      <c r="N8">
-        <v>784.140609</v>
-      </c>
-      <c r="O8">
-        <v>0.6968677182772199</v>
-      </c>
-      <c r="P8">
-        <v>0.69686771827722</v>
-      </c>
-      <c r="Q8">
-        <v>672.9828401830496</v>
-      </c>
-      <c r="R8">
-        <v>6056.845561647448</v>
-      </c>
-      <c r="S8">
-        <v>0.08807830522030886</v>
-      </c>
-      <c r="T8">
-        <v>0.08807830522030888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>2.574727666666667</v>
-      </c>
-      <c r="H9">
-        <v>7.724183</v>
-      </c>
-      <c r="I9">
-        <v>0.126391713822035</v>
-      </c>
-      <c r="J9">
-        <v>0.126391713822035</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>31.999428</v>
-      </c>
-      <c r="N9">
-        <v>95.998284</v>
-      </c>
-      <c r="O9">
-        <v>0.08531391482826334</v>
-      </c>
-      <c r="P9">
-        <v>0.08531391482826335</v>
-      </c>
-      <c r="Q9">
-        <v>82.38981258910799</v>
-      </c>
-      <c r="R9">
-        <v>741.508313301972</v>
-      </c>
-      <c r="S9">
-        <v>0.01078297190801132</v>
-      </c>
-      <c r="T9">
-        <v>0.01078297190801133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>2.574727666666667</v>
-      </c>
-      <c r="H10">
-        <v>7.724183</v>
-      </c>
-      <c r="I10">
-        <v>0.126391713822035</v>
-      </c>
-      <c r="J10">
-        <v>0.126391713822035</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>81.69901900000001</v>
-      </c>
-      <c r="N10">
-        <v>245.097057</v>
-      </c>
-      <c r="O10">
-        <v>0.2178183668945166</v>
-      </c>
-      <c r="P10">
-        <v>0.2178183668945167</v>
-      </c>
-      <c r="Q10">
-        <v>210.3527245588257</v>
-      </c>
-      <c r="R10">
-        <v>1893.174521029431</v>
-      </c>
-      <c r="S10">
-        <v>0.02753043669371476</v>
-      </c>
-      <c r="T10">
-        <v>0.02753043669371476</v>
+        <v>0.003040262746366857</v>
       </c>
     </row>
   </sheetData>
